--- a/shoreline_transects_0623.xlsx
+++ b/shoreline_transects_0623.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuo-Chuan Wu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD326A2-1506-4346-ABA8-722C8105FFC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857B75FA-5A2C-4BFD-9D6F-C63669A1B653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15687" windowHeight="4887" xr2:uid="{03EF704D-6C5C-400C-B43A-F447ECEBED1A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>日期</t>
   </si>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>國內貨物</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1343,16 +1347,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>644235</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>13854</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>103907</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:colOff>505689</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1677,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2651A80B-2720-40EF-870B-499BC4ADABCC}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.3"/>
@@ -1692,7 +1696,7 @@
     <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1708,8 +1712,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>37317</v>
       </c>
@@ -1726,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>37919</v>
       </c>
@@ -1743,7 +1750,7 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>38292</v>
       </c>
@@ -1760,7 +1767,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>38758</v>
       </c>
@@ -1777,7 +1784,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>39468</v>
       </c>
@@ -1794,7 +1801,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>39914</v>
       </c>
@@ -1811,7 +1818,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>40189</v>
       </c>
@@ -1828,7 +1835,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>40579</v>
       </c>
@@ -1845,7 +1852,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>40953</v>
       </c>
@@ -1862,7 +1869,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>41265</v>
       </c>
@@ -1879,7 +1886,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>41482</v>
       </c>
@@ -1896,7 +1903,7 @@
         <v>7.39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>41678</v>
       </c>
@@ -1913,7 +1920,7 @@
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>42060</v>
       </c>
@@ -1930,7 +1937,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>42413</v>
       </c>
@@ -1947,7 +1954,7 @@
         <v>21.92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>42745</v>
       </c>

--- a/shoreline_transects_0623.xlsx
+++ b/shoreline_transects_0623.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuo-Chuan Wu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857B75FA-5A2C-4BFD-9D6F-C63669A1B653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00639B7E-7EFF-4CB0-BE13-C28CBBB10798}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15687" windowHeight="4887" xr2:uid="{03EF704D-6C5C-400C-B43A-F447ECEBED1A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>日期</t>
   </si>
@@ -42,15 +42,21 @@
     <t>國內貨物</t>
   </si>
   <si>
-    <t>Dummy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>港口別</t>
+  </si>
+  <si>
+    <t>安平港</t>
+  </si>
+  <si>
+    <t>安平港</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +68,19 @@
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -93,7 +112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -106,6 +125,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -204,7 +225,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$1</c:f>
+              <c:f>工作表1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -239,7 +260,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$2:$B$16</c:f>
+              <c:f>工作表1!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -303,7 +324,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$C$1</c:f>
+              <c:f>工作表1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -338,7 +359,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$16</c:f>
+              <c:f>工作表1!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -402,7 +423,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$D$1</c:f>
+              <c:f>工作表1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -437,7 +458,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$16</c:f>
+              <c:f>工作表1!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -501,7 +522,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$E$1</c:f>
+              <c:f>工作表1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -536,7 +557,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$E$2:$E$16</c:f>
+              <c:f>工作表1!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1681,72 +1702,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2651A80B-2720-40EF-870B-499BC4ADABCC}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>37317</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>63.83</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>72.47</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>23.37</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.85" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>37919</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>66.5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>66.150000000000006</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>28.8</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>6.98</v>
       </c>
     </row>
@@ -1754,16 +1781,19 @@
       <c r="A4" s="1">
         <v>38292</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>77.47</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>74.89</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>38.520000000000003</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6.36</v>
       </c>
     </row>
@@ -1771,16 +1801,19 @@
       <c r="A5" s="1">
         <v>38758</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>49.57</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>75.02</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>39</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3.49</v>
       </c>
     </row>
@@ -1788,16 +1821,19 @@
       <c r="A6" s="1">
         <v>39468</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>53.44</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>36.54</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>39.04</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>6.58</v>
       </c>
     </row>
@@ -1805,16 +1841,19 @@
       <c r="A7" s="1">
         <v>39914</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>22.93</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>23.83</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>42.73</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.37</v>
       </c>
     </row>
@@ -1822,16 +1861,19 @@
       <c r="A8" s="1">
         <v>40189</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>20.74</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>60.7</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>12.54</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>6.36</v>
       </c>
     </row>
@@ -1839,16 +1881,19 @@
       <c r="A9" s="1">
         <v>40579</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>25.67</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>43.2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>9.17</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>5.95</v>
       </c>
     </row>
@@ -1856,16 +1901,19 @@
       <c r="A10" s="1">
         <v>40953</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
         <v>20.420000000000002</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>46.34</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.38</v>
       </c>
     </row>
@@ -1873,16 +1921,19 @@
       <c r="A11" s="1">
         <v>41265</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
         <v>46.72</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>60.34</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>34.979999999999997</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>12.12</v>
       </c>
     </row>
@@ -1890,16 +1941,19 @@
       <c r="A12" s="2">
         <v>41482</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
         <v>75.98</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>133.63</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>37.08</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7.39</v>
       </c>
     </row>
@@ -1907,16 +1961,19 @@
       <c r="A13" s="2">
         <v>41678</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
         <v>81.010000000000005</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>137.34</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>65.89</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>9.8699999999999992</v>
       </c>
     </row>
@@ -1924,16 +1981,19 @@
       <c r="A14" s="2">
         <v>42060</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
         <v>71.319999999999993</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>154.12</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>53.76</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8.01</v>
       </c>
     </row>
@@ -1941,16 +2001,19 @@
       <c r="A15" s="2">
         <v>42413</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
         <v>64.8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>149.91999999999999</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>58.94</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21.92</v>
       </c>
     </row>
@@ -1958,18 +2021,666 @@
       <c r="A16" s="2">
         <v>42745</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
         <v>67.95</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>170.9</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>60.76</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>11</v>
       </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="4"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="4"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="4"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="4"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="4"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="4"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="4"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="4"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="4"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="4"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="4"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="4"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="4"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="4"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="4"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="4"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="4"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="4"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="4"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="4"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="4"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="4"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="4"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="4"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="4"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="4"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="4"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="4"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="4"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="4"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="4"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="4"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="4"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="4"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="4"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="4"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="4"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="4"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="4"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="4"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="4"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="4"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="4"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="4"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="4"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="4"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="4"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="4"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="4"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="4"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="4"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="4"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="4"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="4"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="4"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="4"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="4"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="4"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="4"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="4"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="4"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="4"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="4"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="4"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="4"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="4"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="4"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="4"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="4"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="4"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="4"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="4"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="4"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="4"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="4"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="4"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="4"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="4"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="4"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="4"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="4"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="4"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" s="4"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="4"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" s="4"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" s="4"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" s="4"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" s="4"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" s="4"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" s="4"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" s="4"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" s="4"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" s="4"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" s="4"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" s="4"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" s="4"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" s="4"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" s="4"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" s="4"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" s="4"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/shoreline_transects_0623.xlsx
+++ b/shoreline_transects_0623.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuo-Chuan Wu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00639B7E-7EFF-4CB0-BE13-C28CBBB10798}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A25CD8C-684F-4515-9960-0DC878D0DFA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15687" windowHeight="4887" xr2:uid="{03EF704D-6C5C-400C-B43A-F447ECEBED1A}"/>
   </bookViews>
@@ -1704,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2651A80B-2720-40EF-870B-499BC4ADABCC}">
   <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B231"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.3"/>
